--- a/data/AHLdelegacijeUmesni.xlsx
+++ b/data/AHLdelegacijeUmesni.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9DED1F-91DC-44F2-9C2E-5A6045BE2B04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4901678-87B3-45F3-822E-4FC241C54323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AHL" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="129">
   <si>
     <t>slo</t>
   </si>
@@ -260,12 +260,24 @@
     <t>2020-02-15</t>
   </si>
   <si>
+    <t>2020-02-18</t>
+  </si>
+  <si>
     <t>2020-02-13</t>
   </si>
   <si>
     <t>2020-02-16</t>
   </si>
   <si>
+    <t>2020-02-20</t>
+  </si>
+  <si>
+    <t>2020-02-22</t>
+  </si>
+  <si>
+    <t>2020-02-23</t>
+  </si>
+  <si>
     <t>Eisarena Salzburg;FAJDIGA;PAHOR;BERGANT;MIKLIC</t>
   </si>
   <si>
@@ -281,6 +293,18 @@
     <t>Klagenfurter Stadthalle;DURCHNER;VIRTA;BEDANA;PUFF</t>
   </si>
   <si>
+    <t>KeineSorgen EisArena;FICHTNER;OREL;HOLZER;RIECKEN</t>
+  </si>
+  <si>
+    <t>Eishalle Jesenice;DURCHNER;KUMMER;BERGANT;JAVORNIK</t>
+  </si>
+  <si>
+    <t>Klagenfurter Stadthalle;BAJT;OREL;MARKIZETI;MATTHEY</t>
+  </si>
+  <si>
+    <t>Eishalle Gröden;KUMMER;PINIE;PUFF;SLAVIERO</t>
+  </si>
+  <si>
     <t>Eishalle Zell am See;LEHNER;LESNIAK;JAVORNIK;SCHONAKLENER</t>
   </si>
   <si>
@@ -290,6 +314,18 @@
     <t>KeineSorgen EisArena;LOICHT;WALLNER;LEGAT;MARTIN</t>
   </si>
   <si>
+    <t>Hala Tivoli;DURCHNER;LESNIAK;MARKIZETI;SCHWEIGHOFER</t>
+  </si>
+  <si>
+    <t>Eisarena Salzburg;FICHTNER;GIACOMOZZI;PACE;SCHONAKLENER</t>
+  </si>
+  <si>
+    <t>Eishalle Jesenice;LESNIAK;PODLESNIK;MIKLIC;WEISS</t>
+  </si>
+  <si>
+    <t>Eishalle Feldkirch;LOICHT;VIRTA;LEGAT;RIECKEN</t>
+  </si>
+  <si>
     <t>Eishalle Lustenau;GAMPER;LEGA;KAINBERGER;WIMMLER</t>
   </si>
   <si>
@@ -299,6 +335,15 @@
     <t>Eisarena Salzburg;BAJT;LESNIAK;KAINBERGER;REISINGER</t>
   </si>
   <si>
+    <t>Eishalle Sterzing;LAZZERI;PINIE;EISL;RINKER</t>
+  </si>
+  <si>
+    <t>Eishalle Lustenau;LEGA;SCHAUER;KAINBERGER;WIMMLER</t>
+  </si>
+  <si>
+    <t>Eishalle Sterzing;GAMPER;GIACOMOZZI;GIACOMOZZI;MARTIN</t>
+  </si>
+  <si>
     <t>Eishalle Feldkirch;HOLZER;LAZZERI;CRISTELI;MARTIN</t>
   </si>
   <si>
@@ -308,6 +353,15 @@
     <t>Eishalle Wien Kagran;KUMMER;REZEK;SCHONAKLENER;SCHWEIGHOFER</t>
   </si>
   <si>
+    <t>Eishalle Ritten;BAJT;GAMPER;MARTIN;SNOJ</t>
+  </si>
+  <si>
+    <t>Sportpark Kitzbühel;HUBER;RUETZ;CRISTELI;PIRAS</t>
+  </si>
+  <si>
+    <t>Eishalle Dornbirn;LOICHT;VIRTA;LEGAT;RIECKEN</t>
+  </si>
+  <si>
     <t>Eishalle Sterzing;HUBER;STEFENELLI;EISL;PACE</t>
   </si>
   <si>
@@ -317,6 +371,15 @@
     <t>Sportpark Kitzbühel;MOSCHEN;VIRTA;PACE;WIMMLER</t>
   </si>
   <si>
+    <t>Eishalle Asiago;MOSCHEN;RUETZ;GIACOMOZZI;HUBER</t>
+  </si>
+  <si>
+    <t>Eishalle Bruneck;GAMPER;HOLZER;MANTOVANI;SLAVIERO</t>
+  </si>
+  <si>
+    <t>Eishalle Zell am See;HOLZER;LAZZERI;BEDYNEK;REISINGER</t>
+  </si>
+  <si>
     <t>Eishalle Canazei;BENVEGNU;PINIE;DE ZORDO;MANTOVANI</t>
   </si>
   <si>
@@ -326,16 +389,31 @@
     <t>Eishalle Cortina;GAMPER;PINIE;RIGONI;RINKER</t>
   </si>
   <si>
+    <t>Eishalle Canazei;MOSCHEN;WALLNER;DE ZORDO;RINKER</t>
+  </si>
+  <si>
+    <t>Eishalle Feldkirch;LEGA;PAHOR;BERGANT;JAVORNIK</t>
+  </si>
+  <si>
     <t>Eishalle Dornbirn;GAMPER;HUBER;DE ZORDO;SLAVIERO</t>
   </si>
   <si>
-    <t>Eishalle Asiago;BENVEGNU;PAHOR;MARKIZETI;PIRAS</t>
+    <t>Eishalle Asiago;BENVEGNU;PAHOR;BERGANT;PIRAS</t>
+  </si>
+  <si>
+    <t>Eishalle Cortina;BENVEGNU;PINIE;BEDANA;GIACOMOZZI</t>
+  </si>
+  <si>
+    <t>Eishalle Ritten;BENVEGNU;FAJDIGA;BASSO;SNOJ</t>
   </si>
   <si>
     <t>Eishalle Gröden;FAJDIGA;STEFENELLI;MANTOVANI;MIKLIC</t>
   </si>
   <si>
     <t>Eishalle Canazei;GIACOMOZZI;LEGA;BASSO;VIGNOLO</t>
+  </si>
+  <si>
+    <t>Eishalle Asiago;STEFENELLI;WIDMANN;HOLZER;RIGONI</t>
   </si>
 </sst>
 </file>
@@ -705,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BT46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BI3" sqref="BI3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -994,11 +1072,11 @@
     <row r="2" spans="1:72" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>COUNTA(A4:A45)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <f>COUNTA(B4:B43)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <f>COUNTA(C4:C43)</f>
@@ -1006,39 +1084,39 @@
       </c>
       <c r="D2">
         <f>COUNTA(D4:D45)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <f>COUNTA(E4:E44)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <f>COUNTA(F4:F44)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <f>COUNTA(G4:G44)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <f>COUNTA(H4:H43)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I2">
         <f>COUNTA(I4:I45)</f>
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <f>COUNTA(J4:J40)</f>
         <v>2</v>
-      </c>
-      <c r="J2">
-        <f>COUNTA(J4:J41)</f>
-        <v>1</v>
       </c>
       <c r="K2">
         <f>COUNTA(K4:K43)</f>
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <f>COUNTA(L4:L43)</f>
         <v>2</v>
-      </c>
-      <c r="L2">
-        <f>COUNTA(L4:L44)</f>
-        <v>1</v>
       </c>
       <c r="M2">
         <f>COUNTA(M4:M43)</f>
@@ -1046,75 +1124,75 @@
       </c>
       <c r="N2">
         <f>COUNTA(N4:N45)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O2">
         <f>COUNTA(O4:O45)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P2">
         <f>COUNTA(P4:P44)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q2">
         <f>COUNTA(Q4:Q44)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R2">
         <f>COUNTA(R4:R42)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S2">
         <f>COUNTA(S4:S43)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T2">
         <f>COUNTA(T4:T44)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U2">
         <f>COUNTA(U4:U44)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V2">
         <f>COUNTA(V4:V43)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W2">
         <f>COUNTA(W4:W42)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X2">
         <f>COUNTA(X4:X45)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Y2">
         <f>COUNTA(Y4:Y45)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z2">
         <f>COUNTA(Z4:Z44)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA2">
         <f>COUNTA(AA4:AA43)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB2">
-        <f>COUNTA(AB4:AB42)</f>
-        <v>1</v>
+        <f>COUNTA(AB4:AB43)</f>
+        <v>3</v>
       </c>
       <c r="AC2">
         <f>COUNTA(AC4:AC43)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD2">
         <f>COUNTA(AD4:AD43)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE2">
         <f>COUNTA(AE4:AE42)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF2">
         <f>COUNTA(AF4:AF43)</f>
@@ -1122,19 +1200,19 @@
       </c>
       <c r="AG2">
         <f>COUNTA(AG4:AG45)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH2">
         <f>COUNTA(AH4:AH45)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI2">
         <f>COUNTA(AI4:AI44)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AJ2">
         <f>COUNTA(AJ4:AJ44)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK2">
         <f>COUNTA(AK4:AK42)</f>
@@ -1142,27 +1220,27 @@
       </c>
       <c r="AL2">
         <f>COUNTA(AL4:AL43)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AM2">
         <f>COUNTA(AM4:AM44)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN2">
         <f>COUNTA(AN4:AN45)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO2">
         <f>COUNTA(AO4:AO42)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP2">
         <f>COUNTA(AP4:AP43)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ2">
         <f>COUNTA(AQ4:AQ45)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AR2">
         <f>COUNTA(AR4:AR45)</f>
@@ -1170,15 +1248,15 @@
       </c>
       <c r="AS2">
         <f>COUNTA(AS4:AS44)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT2">
         <f>COUNTA(AT4:AT44)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU2">
         <f>COUNTA(AU4:AU42)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV2">
         <f>COUNTA(AV4:AV43)</f>
@@ -1186,31 +1264,31 @@
       </c>
       <c r="AW2">
         <f>COUNTA(AW4:AW45)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX2">
         <f>COUNTA(AX4:AX43)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY2">
         <f>COUNTA(AY4:AY43)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ2">
         <f>COUNTA(AZ4:AZ45)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BA2">
         <f>COUNTA(BA4:BA43)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB2">
         <f>COUNTA(BB4:BB42)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC2">
         <f>COUNTA(BC4:BC42)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD2">
         <f>COUNTA(BD4:BD44)</f>
@@ -1222,15 +1300,15 @@
       </c>
       <c r="BF2">
         <f>COUNTA(BF4:BF43)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG2">
         <f>COUNTA(BG4:BG43)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH2">
         <f>COUNTA(BH4:BH45)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI2">
         <f>COUNTA(BI4:BI44)</f>
@@ -1262,7 +1340,7 @@
       </c>
       <c r="BP2">
         <f>COUNTA(BP4:BP44)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BQ2">
         <f t="shared" ref="BQ2" si="0">COUNTA(BQ4:BQ50)</f>
@@ -1514,19 +1592,19 @@
         <v>75</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O4" t="s">
         <v>75</v>
@@ -1538,16 +1616,16 @@
         <v>75</v>
       </c>
       <c r="R4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s">
         <v>75</v>
@@ -1556,31 +1634,34 @@
         <v>75</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>80</v>
       </c>
       <c r="AA4" t="s">
         <v>76</v>
       </c>
       <c r="AB4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD4" s="6" t="s">
         <v>75</v>
       </c>
       <c r="AE4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI4" s="6" t="s">
         <v>75</v>
@@ -1589,7 +1670,7 @@
         <v>75</v>
       </c>
       <c r="AL4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s">
         <v>75</v>
@@ -1598,7 +1679,7 @@
         <v>75</v>
       </c>
       <c r="AO4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AP4" t="s">
         <v>75</v>
@@ -1619,25 +1700,25 @@
         <v>75</v>
       </c>
       <c r="AW4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AX4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AY4" t="s">
         <v>74</v>
       </c>
       <c r="AZ4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BA4" t="s">
         <v>76</v>
       </c>
       <c r="BB4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BC4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BD4" t="s">
         <v>76</v>
@@ -1663,32 +1744,53 @@
         <v>76</v>
       </c>
       <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
         <v>77</v>
       </c>
-      <c r="E5" t="s">
-        <v>77</v>
+      <c r="G5" t="s">
+        <v>80</v>
       </c>
       <c r="H5" t="s">
         <v>74</v>
       </c>
       <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5" t="s">
         <v>77</v>
       </c>
-      <c r="K5" t="s">
-        <v>76</v>
-      </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s">
         <v>76</v>
       </c>
       <c r="Q5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R5" t="s">
         <v>76</v>
       </c>
+      <c r="S5" t="s">
+        <v>81</v>
+      </c>
+      <c r="T5" t="s">
+        <v>82</v>
+      </c>
       <c r="U5" t="s">
         <v>76</v>
       </c>
@@ -1696,13 +1798,19 @@
         <v>76</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X5" s="6" t="s">
         <v>76</v>
       </c>
       <c r="Y5" t="s">
         <v>76</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>80</v>
       </c>
       <c r="AC5" t="s">
         <v>76</v>
@@ -1710,80 +1818,322 @@
       <c r="AD5" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="AE5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>81</v>
+      </c>
       <c r="AH5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX5" t="s">
         <v>77</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT5" t="s">
+      <c r="AY5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ5" t="s">
         <v>77</v>
       </c>
-      <c r="AU5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>76</v>
+      <c r="BA5" t="s">
+        <v>81</v>
       </c>
       <c r="BB5" t="s">
         <v>76</v>
       </c>
+      <c r="BC5" t="s">
+        <v>81</v>
+      </c>
       <c r="BF5" t="s">
         <v>76</v>
       </c>
       <c r="BG5" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP5" t="s">
         <v>77</v>
       </c>
       <c r="BT5">
         <f>SUM(2:2)</f>
-        <v>96</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="s">
         <v>76</v>
       </c>
       <c r="E6" t="s">
         <v>76</v>
       </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
       <c r="O6" t="s">
         <v>76</v>
       </c>
+      <c r="P6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R6" t="s">
+        <v>80</v>
+      </c>
+      <c r="U6" t="s">
+        <v>77</v>
+      </c>
+      <c r="V6" t="s">
+        <v>80</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>77</v>
+      </c>
       <c r="AI6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>77</v>
       </c>
+      <c r="AL6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>81</v>
+      </c>
       <c r="AT6" t="s">
         <v>76</v>
       </c>
+      <c r="AU6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>80</v>
+      </c>
       <c r="BG6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" t="s">
+        <v>82</v>
+      </c>
+      <c r="V7" t="s">
+        <v>81</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="s">
+        <v>82</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X10" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1821,7 +2171,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:E42"/>
+  <dimension ref="A3:I42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
@@ -1845,12 +2195,12 @@
     <col min="16" max="16" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -1859,10 +2209,22 @@
         <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1878,8 +2240,20 @@
       <c r="E4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1895,8 +2269,20 @@
       <c r="E5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1912,8 +2298,20 @@
       <c r="E6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1929,8 +2327,20 @@
       <c r="E7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -1940,8 +2350,20 @@
       <c r="D8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1951,8 +2373,20 @@
       <c r="D9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1962,8 +2396,20 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -1973,8 +2419,20 @@
       <c r="D11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -1984,8 +2442,17 @@
       <c r="D12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1995,8 +2462,17 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2006,8 +2482,17 @@
       <c r="D14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2017,8 +2502,17 @@
       <c r="D15" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2028,8 +2522,17 @@
       <c r="D16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2039,8 +2542,17 @@
       <c r="D17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -2050,8 +2562,17 @@
       <c r="D18" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2061,8 +2582,17 @@
       <c r="D19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2072,8 +2602,17 @@
       <c r="D20" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -2083,8 +2622,17 @@
       <c r="D21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -2094,8 +2642,17 @@
       <c r="D22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -2105,8 +2662,17 @@
       <c r="D23" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2116,8 +2682,14 @@
       <c r="D24" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2127,8 +2699,14 @@
       <c r="D25" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -2138,8 +2716,14 @@
       <c r="D26" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2149,78 +2733,120 @@
       <c r="D27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>62</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>38</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>20</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>7</v>
       </c>
       <c r="D32" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>26</v>
       </c>
       <c r="D33" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>50</v>
       </c>
       <c r="D34" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>12</v>
       </c>
       <c r="D35" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2228,7 +2854,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:E13"/>
+  <dimension ref="A3:I13"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
@@ -2242,6 +2868,8 @@
     <col min="4" max="4" width="66.5703125" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="70.5703125" customWidth="1"/>
+    <col min="8" max="8" width="63.42578125" customWidth="1"/>
     <col min="9" max="9" width="62.5703125" customWidth="1"/>
     <col min="10" max="10" width="79.42578125" customWidth="1"/>
     <col min="11" max="11" width="74" customWidth="1"/>
@@ -2288,12 +2916,12 @@
     <col min="54" max="54" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -2302,99 +2930,177 @@
         <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="F3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="F8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="G9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="G10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>127</v>
+      </c>
+      <c r="H11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>

--- a/data/AHLdelegacijeUmesni.xlsx
+++ b/data/AHLdelegacijeUmesni.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4901678-87B3-45F3-822E-4FC241C54323}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA318863-D89A-40CD-9CAB-56A4E718AFAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,18 +260,18 @@
     <t>2020-02-15</t>
   </si>
   <si>
+    <t>2020-02-13</t>
+  </si>
+  <si>
+    <t>2020-02-16</t>
+  </si>
+  <si>
+    <t>2020-02-20</t>
+  </si>
+  <si>
     <t>2020-02-18</t>
   </si>
   <si>
-    <t>2020-02-13</t>
-  </si>
-  <si>
-    <t>2020-02-16</t>
-  </si>
-  <si>
-    <t>2020-02-20</t>
-  </si>
-  <si>
     <t>2020-02-22</t>
   </si>
   <si>
@@ -314,7 +314,7 @@
     <t>KeineSorgen EisArena;LOICHT;WALLNER;LEGAT;MARTIN</t>
   </si>
   <si>
-    <t>Hala Tivoli;DURCHNER;LESNIAK;MARKIZETI;SCHWEIGHOFER</t>
+    <t>Hala Tivoli;DURCHNER;LESNIAK;MIKLIC;SCHWEIGHOFER</t>
   </si>
   <si>
     <t>Eisarena Salzburg;FICHTNER;GIACOMOZZI;PACE;SCHONAKLENER</t>
@@ -784,7 +784,7 @@
   <dimension ref="A1:BT46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1104,11 +1104,11 @@
       </c>
       <c r="I2">
         <f>COUNTA(I4:I45)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <f>COUNTA(J4:J40)</f>
-        <v>2</v>
+        <f>COUNTA(J4:J39)</f>
+        <v>1</v>
       </c>
       <c r="K2">
         <f>COUNTA(K4:K43)</f>
@@ -1592,19 +1592,19 @@
         <v>75</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O4" t="s">
         <v>75</v>
@@ -1616,16 +1616,16 @@
         <v>75</v>
       </c>
       <c r="R4" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="T4" t="s">
         <v>78</v>
       </c>
-      <c r="S4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="T4" t="s">
-        <v>79</v>
-      </c>
       <c r="U4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s">
         <v>75</v>
@@ -1634,34 +1634,34 @@
         <v>75</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA4" t="s">
         <v>76</v>
       </c>
       <c r="AB4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AC4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD4" s="6" t="s">
         <v>75</v>
       </c>
       <c r="AE4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AG4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AI4" s="6" t="s">
         <v>75</v>
@@ -1670,7 +1670,7 @@
         <v>75</v>
       </c>
       <c r="AL4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s">
         <v>75</v>
@@ -1679,7 +1679,7 @@
         <v>75</v>
       </c>
       <c r="AO4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AP4" t="s">
         <v>75</v>
@@ -1700,25 +1700,25 @@
         <v>75</v>
       </c>
       <c r="AW4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AX4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AY4" t="s">
         <v>74</v>
       </c>
       <c r="AZ4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BA4" t="s">
         <v>76</v>
       </c>
       <c r="BB4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BC4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BD4" t="s">
         <v>76</v>
@@ -1744,25 +1744,22 @@
         <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
         <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
         <v>76</v>
@@ -1771,16 +1768,16 @@
         <v>81</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P5" t="s">
         <v>76</v>
       </c>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R5" t="s">
         <v>76</v>
@@ -1798,7 +1795,7 @@
         <v>76</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X5" s="6" t="s">
         <v>76</v>
@@ -1810,7 +1807,7 @@
         <v>81</v>
       </c>
       <c r="AB5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AC5" t="s">
         <v>76</v>
@@ -1819,32 +1816,32 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AG5" t="s">
         <v>81</v>
       </c>
       <c r="AH5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AI5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO5" t="s">
         <v>78</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>79</v>
-      </c>
       <c r="AP5" t="s">
         <v>76</v>
       </c>
@@ -1852,25 +1849,25 @@
         <v>76</v>
       </c>
       <c r="AS5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AU5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AW5" t="s">
         <v>76</v>
       </c>
       <c r="AX5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AY5" t="s">
         <v>81</v>
       </c>
       <c r="AZ5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="BA5" t="s">
         <v>81</v>
@@ -1885,13 +1882,13 @@
         <v>76</v>
       </c>
       <c r="BG5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BH5" t="s">
         <v>81</v>
       </c>
       <c r="BP5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="BT5">
         <f>SUM(2:2)</f>
@@ -1900,7 +1897,7 @@
     </row>
     <row r="6" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
         <v>81</v>
@@ -1918,106 +1915,106 @@
         <v>81</v>
       </c>
       <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="s">
         <v>80</v>
       </c>
-      <c r="I6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="N6" t="s">
-        <v>81</v>
-      </c>
-      <c r="O6" t="s">
-        <v>76</v>
-      </c>
-      <c r="P6" t="s">
-        <v>77</v>
-      </c>
       <c r="Q6" t="s">
+        <v>79</v>
+      </c>
+      <c r="R6" t="s">
+        <v>79</v>
+      </c>
+      <c r="U6" t="s">
         <v>80</v>
       </c>
-      <c r="R6" t="s">
+      <c r="V6" t="s">
+        <v>79</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="U6" t="s">
-        <v>77</v>
-      </c>
-      <c r="V6" t="s">
-        <v>80</v>
-      </c>
-      <c r="W6" t="s">
-        <v>81</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AB6" t="s">
         <v>82</v>
       </c>
       <c r="AC6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AE6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH6" t="s">
         <v>80</v>
       </c>
-      <c r="AH6" t="s">
-        <v>77</v>
-      </c>
       <c r="AI6" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="s">
         <v>81</v>
       </c>
       <c r="AM6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW6" t="s">
         <v>80</v>
       </c>
-      <c r="AN6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>77</v>
-      </c>
       <c r="AX6" t="s">
         <v>81</v>
       </c>
       <c r="AZ6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BB6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BF6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BG6" t="s">
         <v>76</v>
@@ -2031,10 +2028,13 @@
         <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
         <v>81</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
       </c>
       <c r="K7" t="s">
         <v>82</v>
@@ -2043,10 +2043,10 @@
         <v>82</v>
       </c>
       <c r="O7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R7" t="s">
         <v>82</v>
@@ -2055,19 +2055,19 @@
         <v>81</v>
       </c>
       <c r="X7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI7" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI7" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="AJ7" t="s">
         <v>81</v>
@@ -2082,13 +2082,13 @@
         <v>82</v>
       </c>
       <c r="AT7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG7" t="s">
         <v>80</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>80</v>
-      </c>
-      <c r="BG7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2105,16 +2105,16 @@
         <v>82</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AD8" s="4" t="s">
         <v>81</v>
       </c>
       <c r="AI8" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BG8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2200,7 +2200,7 @@
         <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -2209,13 +2209,13 @@
         <v>76</v>
       </c>
       <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
         <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" t="s">
-        <v>80</v>
       </c>
       <c r="H3" t="s">
         <v>81</v>
@@ -2397,7 +2397,7 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2921,7 +2921,7 @@
         <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -2930,13 +2930,13 @@
         <v>76</v>
       </c>
       <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
         <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" t="s">
-        <v>80</v>
       </c>
       <c r="H3" t="s">
         <v>81</v>

--- a/data/AHLdelegacijeUmesni.xlsx
+++ b/data/AHLdelegacijeUmesni.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA318863-D89A-40CD-9CAB-56A4E718AFAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E63FBA8-96C1-4545-8D0E-80FBF4A25818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,6 +260,9 @@
     <t>2020-02-15</t>
   </si>
   <si>
+    <t>2020-02-22</t>
+  </si>
+  <si>
     <t>2020-02-13</t>
   </si>
   <si>
@@ -272,9 +275,6 @@
     <t>2020-02-18</t>
   </si>
   <si>
-    <t>2020-02-22</t>
-  </si>
-  <si>
     <t>2020-02-23</t>
   </si>
   <si>
@@ -302,7 +302,7 @@
     <t>Klagenfurter Stadthalle;BAJT;OREL;MARKIZETI;MATTHEY</t>
   </si>
   <si>
-    <t>Eishalle Gröden;KUMMER;PINIE;PUFF;SLAVIERO</t>
+    <t>Eishalle Gröden;KUMMER;PINIE;MARTIN;PUFF</t>
   </si>
   <si>
     <t>Eishalle Zell am See;LEHNER;LESNIAK;JAVORNIK;SCHONAKLENER</t>
@@ -341,7 +341,7 @@
     <t>Eishalle Lustenau;LEGA;SCHAUER;KAINBERGER;WIMMLER</t>
   </si>
   <si>
-    <t>Eishalle Sterzing;GAMPER;GIACOMOZZI;GIACOMOZZI;MARTIN</t>
+    <t>Eishalle Sterzing;GAMPER;GIACOMOZZI;GIACOMOZZI;SLAVIERO</t>
   </si>
   <si>
     <t>Eishalle Feldkirch;HOLZER;LAZZERI;CRISTELI;MARTIN</t>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BT46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ7" sqref="AJ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1179,7 +1179,7 @@
         <v>2</v>
       </c>
       <c r="AB2">
-        <f>COUNTA(AB4:AB43)</f>
+        <f>COUNTA(AB4:AB42)</f>
         <v>3</v>
       </c>
       <c r="AC2">
@@ -1211,7 +1211,7 @@
         <v>5</v>
       </c>
       <c r="AJ2">
-        <f>COUNTA(AJ4:AJ44)</f>
+        <f>COUNTA(AJ4:AJ43)</f>
         <v>4</v>
       </c>
       <c r="AK2">
@@ -1592,19 +1592,19 @@
         <v>75</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O4" t="s">
         <v>75</v>
@@ -1616,16 +1616,16 @@
         <v>75</v>
       </c>
       <c r="R4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s">
         <v>75</v>
@@ -1634,34 +1634,34 @@
         <v>75</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="s">
         <v>76</v>
       </c>
       <c r="AB4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD4" s="6" t="s">
         <v>75</v>
       </c>
       <c r="AE4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI4" s="6" t="s">
         <v>75</v>
@@ -1670,7 +1670,7 @@
         <v>75</v>
       </c>
       <c r="AL4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s">
         <v>75</v>
@@ -1679,7 +1679,7 @@
         <v>75</v>
       </c>
       <c r="AO4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AP4" t="s">
         <v>75</v>
@@ -1700,25 +1700,25 @@
         <v>75</v>
       </c>
       <c r="AW4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AX4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AY4" t="s">
         <v>74</v>
       </c>
       <c r="AZ4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BA4" t="s">
         <v>76</v>
       </c>
       <c r="BB4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BC4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="BD4" t="s">
         <v>76</v>
@@ -1744,46 +1744,46 @@
         <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" t="s">
         <v>80</v>
-      </c>
-      <c r="G5" t="s">
-        <v>79</v>
       </c>
       <c r="H5" t="s">
         <v>74</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
         <v>76</v>
       </c>
       <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" t="s">
         <v>81</v>
       </c>
-      <c r="N5" t="s">
-        <v>80</v>
-      </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s">
         <v>76</v>
       </c>
       <c r="Q5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R5" t="s">
         <v>76</v>
       </c>
       <c r="S5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s">
         <v>82</v>
@@ -1795,7 +1795,7 @@
         <v>76</v>
       </c>
       <c r="W5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X5" s="6" t="s">
         <v>76</v>
@@ -1804,10 +1804,10 @@
         <v>76</v>
       </c>
       <c r="AA5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC5" t="s">
         <v>76</v>
@@ -1816,79 +1816,79 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX5" t="s">
         <v>81</v>
       </c>
-      <c r="AH5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>80</v>
-      </c>
       <c r="AY5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ5" t="s">
         <v>81</v>
       </c>
-      <c r="AZ5" t="s">
-        <v>80</v>
-      </c>
       <c r="BA5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>78</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP5" t="s">
         <v>81</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>76</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>81</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>76</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>81</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>80</v>
       </c>
       <c r="BT5">
         <f>SUM(2:2)</f>
@@ -1897,124 +1897,124 @@
     </row>
     <row r="6" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" t="s">
         <v>80</v>
       </c>
-      <c r="B6" t="s">
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="Q6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R6" t="s">
+        <v>80</v>
+      </c>
+      <c r="U6" t="s">
         <v>81</v>
       </c>
-      <c r="G6" t="s">
+      <c r="V6" t="s">
+        <v>80</v>
+      </c>
+      <c r="W6" t="s">
+        <v>77</v>
+      </c>
+      <c r="X6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s">
         <v>81</v>
       </c>
-      <c r="K6" t="s">
+      <c r="AD6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="N6" t="s">
+      <c r="AE6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH6" t="s">
         <v>81</v>
       </c>
-      <c r="O6" t="s">
-        <v>76</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="AI6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM6" t="s">
         <v>80</v>
       </c>
-      <c r="Q6" t="s">
-        <v>79</v>
-      </c>
-      <c r="R6" t="s">
-        <v>79</v>
-      </c>
-      <c r="U6" t="s">
+      <c r="AN6" t="s">
         <v>80</v>
       </c>
-      <c r="V6" t="s">
-        <v>79</v>
-      </c>
-      <c r="W6" t="s">
+      <c r="AO6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AW6" t="s">
         <v>81</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="AX6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>80</v>
       </c>
-      <c r="Y6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="BB6" t="s">
         <v>80</v>
       </c>
-      <c r="AD6" s="4" t="s">
+      <c r="BF6" t="s">
         <v>80</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI6" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>79</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>79</v>
       </c>
       <c r="BG6" t="s">
         <v>76</v>
@@ -2022,19 +2022,19 @@
     </row>
     <row r="7" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
         <v>81</v>
       </c>
-      <c r="D7" t="s">
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" t="s">
         <v>81</v>
-      </c>
-      <c r="E7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I7" t="s">
-        <v>80</v>
       </c>
       <c r="K7" t="s">
         <v>82</v>
@@ -2043,94 +2043,94 @@
         <v>82</v>
       </c>
       <c r="O7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" t="s">
         <v>80</v>
-      </c>
-      <c r="P7" t="s">
-        <v>79</v>
       </c>
       <c r="R7" t="s">
         <v>82</v>
       </c>
       <c r="V7" t="s">
+        <v>77</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="X7" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD7" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI7" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="AJ7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL7" t="s">
         <v>82</v>
       </c>
       <c r="AQ7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AS7" t="s">
         <v>82</v>
       </c>
       <c r="AT7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AW7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BG7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
         <v>76</v>
       </c>
       <c r="O8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P8" t="s">
         <v>82</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AI8" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BG8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="X9" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="BG9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="X10" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2200,7 +2200,7 @@
         <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -2209,16 +2209,16 @@
         <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
         <v>80</v>
       </c>
-      <c r="G3" t="s">
-        <v>79</v>
-      </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s">
         <v>82</v>
@@ -2308,7 +2308,7 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2337,7 +2337,7 @@
         <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2509,7 +2509,7 @@
         <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2921,7 +2921,7 @@
         <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>74</v>
@@ -2930,16 +2930,16 @@
         <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" t="s">
         <v>80</v>
       </c>
-      <c r="G3" t="s">
-        <v>79</v>
-      </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s">
         <v>82</v>

--- a/data/AHLdelegacijeUmesni.xlsx
+++ b/data/AHLdelegacijeUmesni.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E63FBA8-96C1-4545-8D0E-80FBF4A25818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF65B898-82C3-4249-93C7-46A02AD9F866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AHL" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="158">
   <si>
     <t>slo</t>
   </si>
@@ -272,12 +272,21 @@
     <t>2020-02-20</t>
   </si>
   <si>
+    <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>2020-02-25</t>
+  </si>
+  <si>
     <t>2020-02-18</t>
   </si>
   <si>
     <t>2020-02-23</t>
   </si>
   <si>
+    <t>2020-02-27</t>
+  </si>
+  <si>
     <t>Eisarena Salzburg;FAJDIGA;PAHOR;BERGANT;MIKLIC</t>
   </si>
   <si>
@@ -302,7 +311,16 @@
     <t>Klagenfurter Stadthalle;BAJT;OREL;MARKIZETI;MATTHEY</t>
   </si>
   <si>
-    <t>Eishalle Gröden;KUMMER;PINIE;MARTIN;PUFF</t>
+    <t>Eishalle Gröden;BENVEGNU;PINIE;PACE;PUFF</t>
+  </si>
+  <si>
+    <t>Eishalle Wien Kagran;FICHTNER;WIDMANN;BEDYNEK;KAINBERGER</t>
+  </si>
+  <si>
+    <t>Eishalle Wien Kagran;BAJT;PAHOR;REISINGER;WEISS</t>
+  </si>
+  <si>
+    <t>KeineSorgen EisArena;LAZZERI;STEFENELLI;MATTHEY;MOIDL</t>
   </si>
   <si>
     <t>Eishalle Zell am See;LEHNER;LESNIAK;JAVORNIK;SCHONAKLENER</t>
@@ -323,7 +341,16 @@
     <t>Eishalle Jesenice;LESNIAK;PODLESNIK;MIKLIC;WEISS</t>
   </si>
   <si>
-    <t>Eishalle Feldkirch;LOICHT;VIRTA;LEGAT;RIECKEN</t>
+    <t>Eishalle Feldkirch;LEGA;LOICHT;LEGAT;RIECKEN</t>
+  </si>
+  <si>
+    <t>Hala Tivoli;FAJDIGA;PINIE;MANTOVANI;SNOJ</t>
+  </si>
+  <si>
+    <t>Eisarena Salzburg;GAMPER;WALLNER;HUBER;KAINBERGER</t>
+  </si>
+  <si>
+    <t>Klagenfurter Stadthalle;GIACOMOZZI;KUMMER;MANTOVANI;PIRAS</t>
   </si>
   <si>
     <t>Eishalle Lustenau;GAMPER;LEGA;KAINBERGER;WIMMLER</t>
@@ -344,6 +371,15 @@
     <t>Eishalle Sterzing;GAMPER;GIACOMOZZI;GIACOMOZZI;SLAVIERO</t>
   </si>
   <si>
+    <t>Eisarena Salzburg;HUBER;LAZZERI;CRISTELI;RINKER</t>
+  </si>
+  <si>
+    <t>Hala Tivoli;LESNIAK;WIDMANN;JAVORNIK;SCHWEIGHOFER</t>
+  </si>
+  <si>
+    <t>Eishalle Jesenice;BAJT;DURCHNER;MARKIZETI;WEISS</t>
+  </si>
+  <si>
     <t>Eishalle Feldkirch;HOLZER;LAZZERI;CRISTELI;MARTIN</t>
   </si>
   <si>
@@ -362,6 +398,15 @@
     <t>Eishalle Dornbirn;LOICHT;VIRTA;LEGAT;RIECKEN</t>
   </si>
   <si>
+    <t>Eishalle Dornbirn;GAMPER;RUETZ;EISL;MARTIN</t>
+  </si>
+  <si>
+    <t>Eishalle Lustenau;BENVEGNU;SCHAUER;BEDANA;EISL</t>
+  </si>
+  <si>
+    <t>Eishalle Sterzing;FICHTNER;LEGA;BASSO;LEGAT</t>
+  </si>
+  <si>
     <t>Eishalle Sterzing;HUBER;STEFENELLI;EISL;PACE</t>
   </si>
   <si>
@@ -380,6 +425,15 @@
     <t>Eishalle Zell am See;HOLZER;LAZZERI;BEDYNEK;REISINGER</t>
   </si>
   <si>
+    <t>Sportpark Kitzbühel;PODLESNIK;SCHAUER;HOLZER;PUFF</t>
+  </si>
+  <si>
+    <t>Eishalle Feldkirch;HOLZER;RUETZ;MARTIN;RINKER</t>
+  </si>
+  <si>
+    <t>Eishalle Zell am See;LOICHT;MOSCHEN;RIECKEN;RIGONI</t>
+  </si>
+  <si>
     <t>Eishalle Canazei;BENVEGNU;PINIE;DE ZORDO;MANTOVANI</t>
   </si>
   <si>
@@ -395,6 +449,15 @@
     <t>Eishalle Feldkirch;LEGA;PAHOR;BERGANT;JAVORNIK</t>
   </si>
   <si>
+    <t>Eishalle Cortina;GIACOMOZZI;REZEK;BERGANT;RIGONI</t>
+  </si>
+  <si>
+    <t>Sportpark Kitzbühel;KUMMER;OREL;MIKLIC;PUFF</t>
+  </si>
+  <si>
+    <t>Eishalle Lustenau;HOLZER;SCHAUER;KAINBERGER;MARTIN</t>
+  </si>
+  <si>
     <t>Eishalle Dornbirn;GAMPER;HUBER;DE ZORDO;SLAVIERO</t>
   </si>
   <si>
@@ -407,6 +470,15 @@
     <t>Eishalle Ritten;BENVEGNU;FAJDIGA;BASSO;SNOJ</t>
   </si>
   <si>
+    <t>Eishalle Gröden;BENVEGNU;LEGA;DE ZORDO;GIACOMOZZI</t>
+  </si>
+  <si>
+    <t>Eishalle Ritten;STEFENELLI;VIRTA;CRISTELI;SLAVIERO</t>
+  </si>
+  <si>
+    <t>Eishalle Bruneck;HUBER;RUETZ;CRISTELI;PACE</t>
+  </si>
+  <si>
     <t>Eishalle Gröden;FAJDIGA;STEFENELLI;MANTOVANI;MIKLIC</t>
   </si>
   <si>
@@ -414,6 +486,21 @@
   </si>
   <si>
     <t>Eishalle Asiago;STEFENELLI;WIDMANN;HOLZER;RIGONI</t>
+  </si>
+  <si>
+    <t>Eishalle Bruneck;MOSCHEN;VIRTA;PACE;PIRAS</t>
+  </si>
+  <si>
+    <t>Eishalle Canazei;HUBER;MOSCHEN;GIACOMOZZI;PIRAS</t>
+  </si>
+  <si>
+    <t>Eishalle Dornbirn;GAMPER;VIRTA;DE ZORDO;RINKER</t>
+  </si>
+  <si>
+    <t>Eishalle Asiago;LAZZERI;PINIE;DE ZORDO;MANTOVANI</t>
+  </si>
+  <si>
+    <t>Eishalle Cortina;OREL;REZEK;BERGANT;GIACOMOZZI</t>
   </si>
 </sst>
 </file>
@@ -783,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BT46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ7" sqref="AJ7"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI9" sqref="AI9:AI12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1072,51 +1159,51 @@
     <row r="2" spans="1:72" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>COUNTA(A4:A45)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <f>COUNTA(B4:B43)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <f>COUNTA(C4:C43)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <f>COUNTA(D4:D45)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <f>COUNTA(E4:E44)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <f>COUNTA(F4:F44)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <f>COUNTA(G4:G44)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <f>COUNTA(H4:H43)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I2">
         <f>COUNTA(I4:I45)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2">
         <f>COUNTA(J4:J39)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2">
         <f>COUNTA(K4:K43)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L2">
         <f>COUNTA(L4:L43)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M2">
         <f>COUNTA(M4:M43)</f>
@@ -1124,75 +1211,75 @@
       </c>
       <c r="N2">
         <f>COUNTA(N4:N45)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O2">
         <f>COUNTA(O4:O45)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P2">
         <f>COUNTA(P4:P44)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q2">
         <f>COUNTA(Q4:Q44)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R2">
-        <f>COUNTA(R4:R42)</f>
-        <v>4</v>
+        <f>COUNTA(R4:R41)</f>
+        <v>5</v>
       </c>
       <c r="S2">
         <f>COUNTA(S4:S43)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T2">
         <f>COUNTA(T4:T44)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U2">
         <f>COUNTA(U4:U44)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V2">
         <f>COUNTA(V4:V43)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W2">
         <f>COUNTA(W4:W42)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X2">
         <f>COUNTA(X4:X45)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Y2">
         <f>COUNTA(Y4:Y45)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Z2">
         <f>COUNTA(Z4:Z44)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA2">
         <f>COUNTA(AA4:AA43)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB2">
         <f>COUNTA(AB4:AB42)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC2">
         <f>COUNTA(AC4:AC43)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AD2">
         <f>COUNTA(AD4:AD43)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE2">
         <f>COUNTA(AE4:AE42)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF2">
         <f>COUNTA(AF4:AF43)</f>
@@ -1200,19 +1287,19 @@
       </c>
       <c r="AG2">
         <f>COUNTA(AG4:AG45)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AH2">
         <f>COUNTA(AH4:AH45)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI2">
         <f>COUNTA(AI4:AI44)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AJ2">
-        <f>COUNTA(AJ4:AJ43)</f>
-        <v>4</v>
+        <f>COUNTA(AJ4:AJ42)</f>
+        <v>6</v>
       </c>
       <c r="AK2">
         <f>COUNTA(AK4:AK42)</f>
@@ -1220,11 +1307,11 @@
       </c>
       <c r="AL2">
         <f>COUNTA(AL4:AL43)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM2">
         <f>COUNTA(AM4:AM44)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AN2">
         <f>COUNTA(AN4:AN45)</f>
@@ -1232,31 +1319,31 @@
       </c>
       <c r="AO2">
         <f>COUNTA(AO4:AO42)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP2">
         <f>COUNTA(AP4:AP43)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AQ2">
         <f>COUNTA(AQ4:AQ45)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AR2">
         <f>COUNTA(AR4:AR45)</f>
         <v>0</v>
       </c>
       <c r="AS2">
-        <f>COUNTA(AS4:AS44)</f>
-        <v>4</v>
+        <f>COUNTA(AS4:AS43)</f>
+        <v>6</v>
       </c>
       <c r="AT2">
         <f>COUNTA(AT4:AT44)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AU2">
         <f>COUNTA(AU4:AU42)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV2">
         <f>COUNTA(AV4:AV43)</f>
@@ -1264,31 +1351,31 @@
       </c>
       <c r="AW2">
         <f>COUNTA(AW4:AW45)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX2">
         <f>COUNTA(AX4:AX43)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY2">
         <f>COUNTA(AY4:AY43)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ2">
         <f>COUNTA(AZ4:AZ45)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BA2">
         <f>COUNTA(BA4:BA43)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB2">
         <f>COUNTA(BB4:BB42)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC2">
         <f>COUNTA(BC4:BC42)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD2">
         <f>COUNTA(BD4:BD44)</f>
@@ -1296,7 +1383,7 @@
       </c>
       <c r="BE2">
         <f>COUNTA(BE4:BE45)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF2">
         <f>COUNTA(BF4:BF43)</f>
@@ -1304,11 +1391,11 @@
       </c>
       <c r="BG2">
         <f>COUNTA(BG4:BG43)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BH2">
         <f>COUNTA(BH4:BH45)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BI2">
         <f>COUNTA(BI4:BI44)</f>
@@ -1340,7 +1427,7 @@
       </c>
       <c r="BP2">
         <f>COUNTA(BP4:BP44)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BQ2">
         <f t="shared" ref="BQ2" si="0">COUNTA(BQ4:BQ50)</f>
@@ -1723,6 +1810,9 @@
       <c r="BD4" t="s">
         <v>76</v>
       </c>
+      <c r="BE4" t="s">
+        <v>81</v>
+      </c>
       <c r="BF4" t="s">
         <v>75</v>
       </c>
@@ -1743,6 +1833,9 @@
       <c r="B5" t="s">
         <v>76</v>
       </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
       <c r="D5" t="s">
         <v>78</v>
       </c>
@@ -1750,7 +1843,7 @@
         <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
         <v>80</v>
@@ -1761,6 +1854,9 @@
       <c r="I5" t="s">
         <v>78</v>
       </c>
+      <c r="J5" t="s">
+        <v>81</v>
+      </c>
       <c r="K5" t="s">
         <v>76</v>
       </c>
@@ -1768,7 +1864,7 @@
         <v>77</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
         <v>78</v>
@@ -1786,7 +1882,7 @@
         <v>77</v>
       </c>
       <c r="T5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="U5" t="s">
         <v>76</v>
@@ -1803,6 +1899,9 @@
       <c r="Y5" t="s">
         <v>76</v>
       </c>
+      <c r="Z5" t="s">
+        <v>82</v>
+      </c>
       <c r="AA5" t="s">
         <v>77</v>
       </c>
@@ -1816,7 +1915,7 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AG5" t="s">
         <v>77</v>
@@ -1861,13 +1960,13 @@
         <v>76</v>
       </c>
       <c r="AX5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AY5" t="s">
         <v>77</v>
       </c>
       <c r="AZ5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="BA5" t="s">
         <v>77</v>
@@ -1888,20 +1987,23 @@
         <v>77</v>
       </c>
       <c r="BP5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="BT5">
         <f>SUM(2:2)</f>
-        <v>184</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="s">
         <v>76</v>
       </c>
@@ -1923,6 +2025,9 @@
       <c r="K6" t="s">
         <v>77</v>
       </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
       <c r="N6" t="s">
         <v>77</v>
       </c>
@@ -1930,7 +2035,7 @@
         <v>76</v>
       </c>
       <c r="P6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q6" t="s">
         <v>80</v>
@@ -1938,8 +2043,14 @@
       <c r="R6" t="s">
         <v>80</v>
       </c>
+      <c r="S6" t="s">
+        <v>82</v>
+      </c>
+      <c r="T6" t="s">
+        <v>82</v>
+      </c>
       <c r="U6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="V6" t="s">
         <v>80</v>
@@ -1948,31 +2059,40 @@
         <v>77</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y6" t="s">
         <v>80</v>
       </c>
+      <c r="Z6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>82</v>
+      </c>
       <c r="AB6" t="s">
         <v>77</v>
       </c>
       <c r="AC6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AD6" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AE6" t="s">
         <v>80</v>
       </c>
+      <c r="AG6" t="s">
+        <v>85</v>
+      </c>
       <c r="AH6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AI6" s="4" t="s">
         <v>78</v>
       </c>
       <c r="AJ6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AL6" t="s">
         <v>77</v>
@@ -2002,77 +2122,143 @@
         <v>80</v>
       </c>
       <c r="AW6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AX6" t="s">
         <v>77</v>
       </c>
+      <c r="AY6" t="s">
+        <v>82</v>
+      </c>
       <c r="AZ6" t="s">
         <v>80</v>
       </c>
+      <c r="BA6" t="s">
+        <v>85</v>
+      </c>
       <c r="BB6" t="s">
         <v>80</v>
       </c>
+      <c r="BC6" t="s">
+        <v>82</v>
+      </c>
       <c r="BF6" t="s">
         <v>80</v>
       </c>
       <c r="BG6" t="s">
         <v>76</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>77</v>
       </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="s">
         <v>77</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>85</v>
       </c>
       <c r="H7" t="s">
         <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P7" t="s">
         <v>80</v>
       </c>
+      <c r="Q7" t="s">
+        <v>82</v>
+      </c>
       <c r="R7" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="S7" t="s">
+        <v>85</v>
+      </c>
+      <c r="T7" t="s">
+        <v>85</v>
+      </c>
+      <c r="U7" t="s">
+        <v>85</v>
       </c>
       <c r="V7" t="s">
         <v>77</v>
       </c>
+      <c r="W7" t="s">
+        <v>85</v>
+      </c>
       <c r="X7" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>85</v>
+      </c>
       <c r="AC7" t="s">
         <v>80</v>
       </c>
       <c r="AD7" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="AE7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>81</v>
+      </c>
       <c r="AH7" t="s">
         <v>80</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AJ7" t="s">
         <v>82</v>
       </c>
       <c r="AL7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP7" t="s">
         <v>82</v>
       </c>
       <c r="AQ7" t="s">
@@ -2084,56 +2270,278 @@
       <c r="AT7" t="s">
         <v>80</v>
       </c>
+      <c r="AU7" t="s">
+        <v>82</v>
+      </c>
       <c r="AW7" t="s">
         <v>80</v>
       </c>
+      <c r="AX7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>82</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>85</v>
+      </c>
       <c r="BG7" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
       <c r="E8" t="s">
         <v>77</v>
       </c>
       <c r="H8" t="s">
         <v>76</v>
       </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
       <c r="O8" t="s">
         <v>77</v>
       </c>
       <c r="P8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>85</v>
+      </c>
+      <c r="R8" t="s">
+        <v>81</v>
+      </c>
+      <c r="V8" t="s">
         <v>82</v>
+      </c>
+      <c r="W8" t="s">
+        <v>81</v>
       </c>
       <c r="X8" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="Y8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>82</v>
+      </c>
       <c r="AD8" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="AE8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>81</v>
+      </c>
       <c r="AI8" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="AJ8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>81</v>
+      </c>
       <c r="BG8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>81</v>
+      </c>
+      <c r="V9" t="s">
+        <v>85</v>
+      </c>
       <c r="X9" s="6" t="s">
         <v>77</v>
       </c>
+      <c r="Y9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>85</v>
+      </c>
       <c r="AD9" s="6" t="s">
         <v>77</v>
       </c>
+      <c r="AE9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI9" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>85</v>
+      </c>
       <c r="BG9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" t="s">
+        <v>85</v>
+      </c>
+      <c r="V10" t="s">
+        <v>84</v>
+      </c>
       <c r="X10" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="AC10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>81</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:72" ht="15" x14ac:dyDescent="0.25">
+      <c r="X12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:72" ht="15" x14ac:dyDescent="0.25">
+      <c r="X13" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:72" ht="15" x14ac:dyDescent="0.25">
+      <c r="X14" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:72" ht="15" x14ac:dyDescent="0.25">
+      <c r="X15" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
     <row r="16" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2171,7 +2579,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:I42"/>
+  <dimension ref="A3:L42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
@@ -2195,7 +2603,7 @@
     <col min="16" max="16" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -2212,7 +2620,7 @@
         <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
         <v>80</v>
@@ -2221,10 +2629,19 @@
         <v>77</v>
       </c>
       <c r="I3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2250,10 +2667,19 @@
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2281,8 +2707,17 @@
       <c r="I5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2308,10 +2743,19 @@
         <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2339,8 +2783,17 @@
       <c r="I7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -2360,10 +2813,19 @@
         <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2383,10 +2845,19 @@
         <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2408,8 +2879,17 @@
       <c r="I10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -2431,8 +2911,17 @@
       <c r="I11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -2451,8 +2940,17 @@
       <c r="H12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -2471,8 +2969,17 @@
       <c r="H13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2491,8 +2998,17 @@
       <c r="H14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -2511,8 +3027,17 @@
       <c r="H15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2531,8 +3056,17 @@
       <c r="H16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -2551,8 +3085,17 @@
       <c r="H17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -2571,8 +3114,17 @@
       <c r="H18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2591,8 +3143,17 @@
       <c r="H19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2611,8 +3172,17 @@
       <c r="H20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -2631,8 +3201,17 @@
       <c r="H21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -2651,8 +3230,17 @@
       <c r="H22" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -2671,8 +3259,17 @@
       <c r="H23" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" t="s">
+        <v>52</v>
+      </c>
+      <c r="L23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2688,8 +3285,17 @@
       <c r="H24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2705,8 +3311,17 @@
       <c r="H25" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" t="s">
+        <v>53</v>
+      </c>
+      <c r="L25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -2722,8 +3337,17 @@
       <c r="H26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2739,8 +3363,17 @@
       <c r="H27" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>62</v>
       </c>
@@ -2753,8 +3386,17 @@
       <c r="H28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>38</v>
       </c>
@@ -2767,8 +3409,17 @@
       <c r="H29" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>20</v>
       </c>
@@ -2781,8 +3432,17 @@
       <c r="H30" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
+        <v>49</v>
+      </c>
+      <c r="L30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>31</v>
       </c>
@@ -2795,8 +3455,17 @@
       <c r="H31" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>7</v>
       </c>
@@ -2806,8 +3475,17 @@
       <c r="H32" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>26</v>
       </c>
@@ -2817,8 +3495,17 @@
       <c r="H33" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>48</v>
+      </c>
+      <c r="K33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>50</v>
       </c>
@@ -2828,8 +3515,17 @@
       <c r="H34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>12</v>
       </c>
@@ -2839,14 +3535,51 @@
       <c r="H35" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="J35" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>19</v>
+      </c>
+      <c r="L37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>50</v>
+      </c>
+      <c r="L39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2854,7 +3587,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:I13"/>
+  <dimension ref="A3:L13"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
@@ -2916,7 +3649,7 @@
     <col min="54" max="54" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -2933,7 +3666,7 @@
         <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G3" t="s">
         <v>80</v>
@@ -2942,165 +3675,253 @@
         <v>77</v>
       </c>
       <c r="I3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>85</v>
+      </c>
+      <c r="L3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="J4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="J5" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="J6" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" t="s">
+        <v>115</v>
+      </c>
+      <c r="L6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="J7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="G8" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="H8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="J8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" t="s">
+        <v>133</v>
+      </c>
+      <c r="L8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="H9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="J9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K9" t="s">
+        <v>141</v>
+      </c>
+      <c r="L9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="G10" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="H10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="J10" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="H11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>152</v>
+      </c>
+      <c r="J11" t="s">
+        <v>153</v>
+      </c>
+      <c r="K11" t="s">
+        <v>154</v>
+      </c>
+      <c r="L11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>156</v>
+      </c>
+      <c r="L12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>

--- a/data/AHLdelegacijeUmesni.xlsx
+++ b/data/AHLdelegacijeUmesni.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF65B898-82C3-4249-93C7-46A02AD9F866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F055EE4-6C09-44EC-AF42-46AB0BF5148E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AHL" sheetId="1" r:id="rId1"/>
@@ -338,7 +338,7 @@
     <t>Eisarena Salzburg;FICHTNER;GIACOMOZZI;PACE;SCHONAKLENER</t>
   </si>
   <si>
-    <t>Eishalle Jesenice;LESNIAK;PODLESNIK;MIKLIC;WEISS</t>
+    <t>Eishalle Jesenice;LESNIAK;REZEK;MIKLIC;WEISS</t>
   </si>
   <si>
     <t>Eishalle Feldkirch;LEGA;LOICHT;LEGAT;RIECKEN</t>
@@ -368,10 +368,10 @@
     <t>Eishalle Lustenau;LEGA;SCHAUER;KAINBERGER;WIMMLER</t>
   </si>
   <si>
-    <t>Eishalle Sterzing;GAMPER;GIACOMOZZI;GIACOMOZZI;SLAVIERO</t>
-  </si>
-  <si>
-    <t>Eisarena Salzburg;HUBER;LAZZERI;CRISTELI;RINKER</t>
+    <t>Eishalle Sterzing;RUETZ;GIACOMOZZI;GIACOMOZZI;SLAVIERO</t>
+  </si>
+  <si>
+    <t>Eisarena Salzburg;HUBER;LAZZERI;CRISTELI;EISL</t>
   </si>
   <si>
     <t>Hala Tivoli;LESNIAK;WIDMANN;JAVORNIK;SCHWEIGHOFER</t>
@@ -398,7 +398,7 @@
     <t>Eishalle Dornbirn;LOICHT;VIRTA;LEGAT;RIECKEN</t>
   </si>
   <si>
-    <t>Eishalle Dornbirn;GAMPER;RUETZ;EISL;MARTIN</t>
+    <t>Eishalle Dornbirn;GAMPER;RUETZ;MARTIN;RINKER</t>
   </si>
   <si>
     <t>Eishalle Lustenau;BENVEGNU;SCHAUER;BEDANA;EISL</t>
@@ -425,7 +425,7 @@
     <t>Eishalle Zell am See;HOLZER;LAZZERI;BEDYNEK;REISINGER</t>
   </si>
   <si>
-    <t>Sportpark Kitzbühel;PODLESNIK;SCHAUER;HOLZER;PUFF</t>
+    <t>Sportpark Kitzbühel;BAJT;SCHAUER;HOLZER;PUFF</t>
   </si>
   <si>
     <t>Eishalle Feldkirch;HOLZER;RUETZ;MARTIN;RINKER</t>
@@ -576,10 +576,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -588,8 +589,10 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -870,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BT46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI9" sqref="AI9:AI12"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BG3" sqref="BG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1159,7 +1162,7 @@
     <row r="2" spans="1:72" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>COUNTA(A4:A45)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <f>COUNTA(B4:B43)</f>
@@ -1167,7 +1170,7 @@
       </c>
       <c r="C2">
         <f>COUNTA(C4:C43)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <f>COUNTA(D4:D45)</f>
@@ -1279,7 +1282,7 @@
       </c>
       <c r="AE2">
         <f>COUNTA(AE4:AE42)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF2">
         <f>COUNTA(AF4:AF43)</f>
@@ -1358,8 +1361,8 @@
         <v>5</v>
       </c>
       <c r="AY2">
-        <f>COUNTA(AY4:AY43)</f>
-        <v>3</v>
+        <f>COUNTA(AY4:AY42)</f>
+        <v>1</v>
       </c>
       <c r="AZ2">
         <f>COUNTA(AZ4:AZ45)</f>
@@ -1390,8 +1393,8 @@
         <v>3</v>
       </c>
       <c r="BG2">
-        <f>COUNTA(BG4:BG43)</f>
-        <v>9</v>
+        <f>COUNTA(BG4:BG42)</f>
+        <v>8</v>
       </c>
       <c r="BH2">
         <f>COUNTA(BH4:BH45)</f>
@@ -1962,9 +1965,6 @@
       <c r="AX5" t="s">
         <v>83</v>
       </c>
-      <c r="AY5" t="s">
-        <v>77</v>
-      </c>
       <c r="AZ5" t="s">
         <v>83</v>
       </c>
@@ -2127,9 +2127,6 @@
       <c r="AX6" t="s">
         <v>77</v>
       </c>
-      <c r="AY6" t="s">
-        <v>82</v>
-      </c>
       <c r="AZ6" t="s">
         <v>80</v>
       </c>
@@ -2162,6 +2159,9 @@
       <c r="B7" t="s">
         <v>85</v>
       </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
       <c r="D7" t="s">
         <v>77</v>
       </c>
@@ -2455,10 +2455,13 @@
         <v>85</v>
       </c>
       <c r="BG9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
       <c r="H10" t="s">
         <v>81</v>
       </c>
@@ -2480,6 +2483,9 @@
       <c r="AD10" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="AE10" t="s">
+        <v>77</v>
+      </c>
       <c r="AI10" s="6" t="s">
         <v>85</v>
       </c>
@@ -2493,7 +2499,7 @@
         <v>81</v>
       </c>
       <c r="BG10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2510,10 +2516,10 @@
         <v>85</v>
       </c>
       <c r="BG11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:72" ht="15" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="X12" s="6" t="s">
         <v>82</v>
       </c>
@@ -2523,21 +2529,18 @@
       <c r="AI12" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="BG12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:72" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="X13" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:72" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="X14" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:72" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="X15" s="6" t="s">
         <v>81</v>
       </c>
@@ -3028,7 +3031,7 @@
         <v>31</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="K15" t="s">
         <v>24</v>
@@ -3115,7 +3118,7 @@
         <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="K18" t="s">
         <v>44</v>
@@ -3144,7 +3147,7 @@
         <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s">
         <v>71</v>
@@ -3173,7 +3176,7 @@
         <v>33</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="K20" t="s">
         <v>33</v>
@@ -3590,7 +3593,7 @@
   <dimension ref="A3:L13"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="H4" sqref="H4:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3706,13 +3709,13 @@
       <c r="F4" t="s">
         <v>91</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="2" t="s">
         <v>94</v>
       </c>
       <c r="J4" t="s">
@@ -3738,13 +3741,13 @@
       <c r="F5" t="s">
         <v>101</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J5" t="s">
@@ -3770,10 +3773,10 @@
       <c r="F6" t="s">
         <v>111</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="8" t="s">
         <v>113</v>
       </c>
       <c r="J6" t="s">
@@ -3799,10 +3802,10 @@
       <c r="F7" t="s">
         <v>120</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>122</v>
       </c>
       <c r="J7" t="s">
@@ -3828,10 +3831,10 @@
       <c r="F8" t="s">
         <v>129</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="2" t="s">
         <v>131</v>
       </c>
       <c r="J8" t="s">
@@ -3854,10 +3857,10 @@
       <c r="D9" t="s">
         <v>137</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="2" t="s">
         <v>139</v>
       </c>
       <c r="J9" t="s">
@@ -3877,10 +3880,10 @@
       <c r="D10" t="s">
         <v>144</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="2" t="s">
         <v>146</v>
       </c>
       <c r="J10" t="s">
@@ -3900,7 +3903,7 @@
       <c r="D11" t="s">
         <v>151</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="2" t="s">
         <v>152</v>
       </c>
       <c r="J11" t="s">

--- a/data/AHLdelegacijeUmesni.xlsx
+++ b/data/AHLdelegacijeUmesni.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F055EE4-6C09-44EC-AF42-46AB0BF5148E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1505A2D9-4949-46B9-AF3A-3D6F15DE69EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="178">
   <si>
     <t>slo</t>
   </si>
@@ -284,9 +284,15 @@
     <t>2020-02-23</t>
   </si>
   <si>
+    <t>2020-03-04</t>
+  </si>
+  <si>
     <t>2020-02-27</t>
   </si>
   <si>
+    <t>2020-03-02</t>
+  </si>
+  <si>
     <t>Eisarena Salzburg;FAJDIGA;PAHOR;BERGANT;MIKLIC</t>
   </si>
   <si>
@@ -323,6 +329,12 @@
     <t>KeineSorgen EisArena;LAZZERI;STEFENELLI;MATTHEY;MOIDL</t>
   </si>
   <si>
+    <t>Eishalle Wien Kagran;DURCHNER;LOICHT;MIKLIC;SNOJ</t>
+  </si>
+  <si>
+    <t>Hala Tivoli;LEHNER;LESNIAK;LEGAT;WEISS</t>
+  </si>
+  <si>
     <t>Eishalle Zell am See;LEHNER;LESNIAK;JAVORNIK;SCHONAKLENER</t>
   </si>
   <si>
@@ -347,12 +359,18 @@
     <t>Hala Tivoli;FAJDIGA;PINIE;MANTOVANI;SNOJ</t>
   </si>
   <si>
-    <t>Eisarena Salzburg;GAMPER;WALLNER;HUBER;KAINBERGER</t>
+    <t>Eisarena Salzburg;DURCHNER;WALLNER;HUBER;KAINBERGER</t>
   </si>
   <si>
     <t>Klagenfurter Stadthalle;GIACOMOZZI;KUMMER;MANTOVANI;PIRAS</t>
   </si>
   <si>
+    <t>Eishalle Jesenice;FICHTNER;MOSCHEN;CRISTELI;RIECKEN</t>
+  </si>
+  <si>
+    <t>Eishalle Zell am See;DURCHNER;FICHTNER;MOIDL;REISINGER</t>
+  </si>
+  <si>
     <t>Eishalle Lustenau;GAMPER;LEGA;KAINBERGER;WIMMLER</t>
   </si>
   <si>
@@ -377,7 +395,13 @@
     <t>Hala Tivoli;LESNIAK;WIDMANN;JAVORNIK;SCHWEIGHOFER</t>
   </si>
   <si>
-    <t>Eishalle Jesenice;BAJT;DURCHNER;MARKIZETI;WEISS</t>
+    <t>Eishalle Jesenice;BAJT;DURCHNER;GATOL;MARKIZETI</t>
+  </si>
+  <si>
+    <t>Eishalle Asiago;GAMPER;HOLZER;DE ZORDO;RIGONI</t>
+  </si>
+  <si>
+    <t>Eishalle Ritten;MOSCHEN;PINIE;CRISTELI;RIGONI</t>
   </si>
   <si>
     <t>Eishalle Feldkirch;HOLZER;LAZZERI;CRISTELI;MARTIN</t>
@@ -401,12 +425,18 @@
     <t>Eishalle Dornbirn;GAMPER;RUETZ;MARTIN;RINKER</t>
   </si>
   <si>
-    <t>Eishalle Lustenau;BENVEGNU;SCHAUER;BEDANA;EISL</t>
+    <t>Eishalle Lustenau;BENVEGNU;GAMPER;BEDANA;EISL</t>
   </si>
   <si>
     <t>Eishalle Sterzing;FICHTNER;LEGA;BASSO;LEGAT</t>
   </si>
   <si>
+    <t>Eishalle Cortina;BENVEGNU;STEFENELLI;PACE;PIRAS</t>
+  </si>
+  <si>
+    <t>Eishalle Bruneck;LEGA;PAHOR;MANTOVANI;SNOJ</t>
+  </si>
+  <si>
     <t>Eishalle Sterzing;HUBER;STEFENELLI;EISL;PACE</t>
   </si>
   <si>
@@ -434,6 +464,12 @@
     <t>Eishalle Zell am See;LOICHT;MOSCHEN;RIECKEN;RIGONI</t>
   </si>
   <si>
+    <t>Eishalle Gröden;PINIE;SCHAUER;HUBER;MANTOVANI</t>
+  </si>
+  <si>
+    <t>Eishalle Lustenau;HOLZER;RUETZ;EISL;MARTIN</t>
+  </si>
+  <si>
     <t>Eishalle Canazei;BENVEGNU;PINIE;DE ZORDO;MANTOVANI</t>
   </si>
   <si>
@@ -449,13 +485,19 @@
     <t>Eishalle Feldkirch;LEGA;PAHOR;BERGANT;JAVORNIK</t>
   </si>
   <si>
-    <t>Eishalle Cortina;GIACOMOZZI;REZEK;BERGANT;RIGONI</t>
+    <t>Eishalle Cortina;REZEK;STEFENELLI;BERGANT;RIGONI</t>
   </si>
   <si>
     <t>Sportpark Kitzbühel;KUMMER;OREL;MIKLIC;PUFF</t>
   </si>
   <si>
-    <t>Eishalle Lustenau;HOLZER;SCHAUER;KAINBERGER;MARTIN</t>
+    <t>Eishalle Lustenau;HOLZER;SCHAUER;EISL;MARTIN</t>
+  </si>
+  <si>
+    <t>Klagenfurter Stadthalle;FAJDIGA;LESNIAK;PUFF;SCHWEIGHOFER</t>
+  </si>
+  <si>
+    <t>Eishalle Sterzing;FAJDIGA;LAZZERI;BERGANT;DE ZORDO</t>
   </si>
   <si>
     <t>Eishalle Dornbirn;GAMPER;HUBER;DE ZORDO;SLAVIERO</t>
@@ -473,12 +515,18 @@
     <t>Eishalle Gröden;BENVEGNU;LEGA;DE ZORDO;GIACOMOZZI</t>
   </si>
   <si>
-    <t>Eishalle Ritten;STEFENELLI;VIRTA;CRISTELI;SLAVIERO</t>
+    <t>Eishalle Ritten;STEFENELLI;VIRTA;CRISTELI;DE ZORDO</t>
   </si>
   <si>
     <t>Eishalle Bruneck;HUBER;RUETZ;CRISTELI;PACE</t>
   </si>
   <si>
+    <t>Sportpark Kitzbühel;GIACOMOZZI;WALLNER;GIACOMOZZI;MARTIN</t>
+  </si>
+  <si>
+    <t>Eishalle Gröden;GIACOMOZZI;STEFENELLI;KAINBERGER;WIMMLER</t>
+  </si>
+  <si>
     <t>Eishalle Gröden;FAJDIGA;STEFENELLI;MANTOVANI;MIKLIC</t>
   </si>
   <si>
@@ -497,17 +545,29 @@
     <t>Eishalle Dornbirn;GAMPER;VIRTA;DE ZORDO;RINKER</t>
   </si>
   <si>
-    <t>Eishalle Asiago;LAZZERI;PINIE;DE ZORDO;MANTOVANI</t>
+    <t>Eishalle Dornbirn;LAZZERI;RUETZ;BEDANA;RINKER</t>
+  </si>
+  <si>
+    <t>Eishalle Canazei;BENVEGNU;KUMMER;JAVORNIK;MARKIZETI</t>
+  </si>
+  <si>
+    <t>Eishalle Asiago;LAZZERI;PINIE;MANTOVANI;SLAVIERO</t>
   </si>
   <si>
     <t>Eishalle Cortina;OREL;REZEK;BERGANT;GIACOMOZZI</t>
+  </si>
+  <si>
+    <t>KeineSorgen EisArena;OREL;WIDMANN;MATTHEY;SCHONAKLENER</t>
+  </si>
+  <si>
+    <t>Eishalle Feldkirch;HUBER;VIRTA;BEDANA;RINKER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,6 +581,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -576,9 +643,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -589,10 +655,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -873,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BT46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BG3" sqref="BG3"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1166,7 +1231,7 @@
       </c>
       <c r="B2">
         <f>COUNTA(B4:B43)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <f>COUNTA(C4:C43)</f>
@@ -1174,39 +1239,39 @@
       </c>
       <c r="D2">
         <f>COUNTA(D4:D45)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <f>COUNTA(E4:E44)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <f>COUNTA(F4:F44)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <f>COUNTA(G4:G44)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <f>COUNTA(H4:H43)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <f>COUNTA(I4:I45)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2">
         <f>COUNTA(J4:J39)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K2">
         <f>COUNTA(K4:K43)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L2">
         <f>COUNTA(L4:L43)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M2">
         <f>COUNTA(M4:M43)</f>
@@ -1214,59 +1279,59 @@
       </c>
       <c r="N2">
         <f>COUNTA(N4:N45)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O2">
         <f>COUNTA(O4:O45)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P2">
         <f>COUNTA(P4:P44)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q2">
         <f>COUNTA(Q4:Q44)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R2">
         <f>COUNTA(R4:R41)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S2">
         <f>COUNTA(S4:S43)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T2">
         <f>COUNTA(T4:T44)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U2">
         <f>COUNTA(U4:U44)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V2">
         <f>COUNTA(V4:V43)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="W2">
         <f>COUNTA(W4:W42)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X2">
-        <f>COUNTA(X4:X45)</f>
-        <v>12</v>
+        <f>COUNTA(X4:X44)</f>
+        <v>14</v>
       </c>
       <c r="Y2">
         <f>COUNTA(Y4:Y45)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z2">
-        <f>COUNTA(Z4:Z44)</f>
+        <f>COUNTA(Z4:Z43)</f>
         <v>4</v>
       </c>
       <c r="AA2">
         <f>COUNTA(AA4:AA43)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB2">
         <f>COUNTA(AB4:AB42)</f>
@@ -1274,35 +1339,35 @@
       </c>
       <c r="AC2">
         <f>COUNTA(AC4:AC43)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AD2">
         <f>COUNTA(AD4:AD43)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE2">
         <f>COUNTA(AE4:AE42)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF2">
         <f>COUNTA(AF4:AF43)</f>
         <v>0</v>
       </c>
       <c r="AG2">
-        <f>COUNTA(AG4:AG45)</f>
+        <f>COUNTA(AG4:AG44)</f>
         <v>4</v>
       </c>
       <c r="AH2">
         <f>COUNTA(AH4:AH45)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI2">
         <f>COUNTA(AI4:AI44)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ2">
         <f>COUNTA(AJ4:AJ42)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK2">
         <f>COUNTA(AK4:AK42)</f>
@@ -1310,27 +1375,27 @@
       </c>
       <c r="AL2">
         <f>COUNTA(AL4:AL43)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM2">
-        <f>COUNTA(AM4:AM44)</f>
+        <f>COUNTA(AM4:AM43)</f>
         <v>6</v>
       </c>
       <c r="AN2">
         <f>COUNTA(AN4:AN45)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO2">
         <f>COUNTA(AO4:AO42)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP2">
         <f>COUNTA(AP4:AP43)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ2">
         <f>COUNTA(AQ4:AQ45)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR2">
         <f>COUNTA(AR4:AR45)</f>
@@ -1338,27 +1403,27 @@
       </c>
       <c r="AS2">
         <f>COUNTA(AS4:AS43)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT2">
         <f>COUNTA(AT4:AT44)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AU2">
         <f>COUNTA(AU4:AU42)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV2">
         <f>COUNTA(AV4:AV43)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW2">
         <f>COUNTA(AW4:AW45)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX2">
         <f>COUNTA(AX4:AX43)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY2">
         <f>COUNTA(AY4:AY42)</f>
@@ -1366,15 +1431,15 @@
       </c>
       <c r="AZ2">
         <f>COUNTA(AZ4:AZ45)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA2">
         <f>COUNTA(BA4:BA43)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB2">
         <f>COUNTA(BB4:BB42)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC2">
         <f>COUNTA(BC4:BC42)</f>
@@ -1386,15 +1451,15 @@
       </c>
       <c r="BE2">
         <f>COUNTA(BE4:BE45)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF2">
         <f>COUNTA(BF4:BF43)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG2">
         <f>COUNTA(BG4:BG42)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BH2">
         <f>COUNTA(BH4:BH45)</f>
@@ -1426,11 +1491,11 @@
       </c>
       <c r="BO2">
         <f>COUNTA(BO4:BO43)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP2">
         <f>COUNTA(BP4:BP44)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BQ2">
         <f t="shared" ref="BQ2" si="0">COUNTA(BQ4:BQ50)</f>
@@ -1825,6 +1890,9 @@
       <c r="BH4" t="s">
         <v>76</v>
       </c>
+      <c r="BO4" t="s">
+        <v>81</v>
+      </c>
       <c r="BP4" t="s">
         <v>75</v>
       </c>
@@ -1959,6 +2027,9 @@
       <c r="AU5" t="s">
         <v>78</v>
       </c>
+      <c r="AV5" t="s">
+        <v>85</v>
+      </c>
       <c r="AW5" t="s">
         <v>76</v>
       </c>
@@ -1977,6 +2048,9 @@
       <c r="BC5" t="s">
         <v>77</v>
       </c>
+      <c r="BE5" t="s">
+        <v>85</v>
+      </c>
       <c r="BF5" t="s">
         <v>76</v>
       </c>
@@ -1991,7 +2065,7 @@
       </c>
       <c r="BT5">
         <f>SUM(2:2)</f>
-        <v>288</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2022,6 +2096,9 @@
       <c r="I6" t="s">
         <v>77</v>
       </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
       <c r="K6" t="s">
         <v>77</v>
       </c>
@@ -2065,7 +2142,7 @@
         <v>80</v>
       </c>
       <c r="Z6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="AA6" t="s">
         <v>82</v>
@@ -2083,7 +2160,7 @@
         <v>80</v>
       </c>
       <c r="AG6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH6" t="s">
         <v>83</v>
@@ -2131,7 +2208,7 @@
         <v>80</v>
       </c>
       <c r="BA6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="BB6" t="s">
         <v>80</v>
@@ -2157,7 +2234,7 @@
         <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
         <v>77</v>
@@ -2172,7 +2249,7 @@
         <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s">
         <v>77</v>
@@ -2183,6 +2260,9 @@
       <c r="K7" t="s">
         <v>84</v>
       </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
       <c r="N7" t="s">
         <v>84</v>
       </c>
@@ -2196,22 +2276,22 @@
         <v>82</v>
       </c>
       <c r="R7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V7" t="s">
         <v>77</v>
       </c>
       <c r="W7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X7" s="6" t="s">
         <v>80</v>
@@ -2220,13 +2300,13 @@
         <v>82</v>
       </c>
       <c r="Z7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AA7" t="s">
         <v>81</v>
       </c>
       <c r="AB7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC7" t="s">
         <v>80</v>
@@ -2238,7 +2318,7 @@
         <v>82</v>
       </c>
       <c r="AG7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AH7" t="s">
         <v>80</v>
@@ -2255,8 +2335,11 @@
       <c r="AM7" t="s">
         <v>82</v>
       </c>
+      <c r="AN7" t="s">
+        <v>85</v>
+      </c>
       <c r="AO7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AP7" t="s">
         <v>82</v>
@@ -2277,23 +2360,32 @@
         <v>80</v>
       </c>
       <c r="AX7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AZ7" t="s">
         <v>82</v>
       </c>
+      <c r="BA7" t="s">
+        <v>85</v>
+      </c>
       <c r="BB7" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>87</v>
       </c>
       <c r="BG7" t="s">
         <v>83</v>
       </c>
       <c r="BP7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
         <v>85</v>
       </c>
       <c r="D8" t="s">
@@ -2302,11 +2394,17 @@
       <c r="E8" t="s">
         <v>77</v>
       </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>85</v>
+      </c>
       <c r="H8" t="s">
         <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K8" t="s">
         <v>81</v>
@@ -2321,11 +2419,20 @@
         <v>84</v>
       </c>
       <c r="Q8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R8" t="s">
         <v>81</v>
       </c>
+      <c r="S8" t="s">
+        <v>87</v>
+      </c>
+      <c r="T8" t="s">
+        <v>87</v>
+      </c>
+      <c r="U8" t="s">
+        <v>87</v>
+      </c>
       <c r="V8" t="s">
         <v>82</v>
       </c>
@@ -2336,7 +2443,10 @@
         <v>80</v>
       </c>
       <c r="Y8" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>87</v>
       </c>
       <c r="AC8" t="s">
         <v>82</v>
@@ -2345,7 +2455,7 @@
         <v>77</v>
       </c>
       <c r="AE8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH8" t="s">
         <v>81</v>
@@ -2354,13 +2464,16 @@
         <v>80</v>
       </c>
       <c r="AJ8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL8" t="s">
         <v>81</v>
       </c>
       <c r="AM8" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>87</v>
       </c>
       <c r="AP8" t="s">
         <v>81</v>
@@ -2369,13 +2482,13 @@
         <v>82</v>
       </c>
       <c r="AS8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AT8" t="s">
         <v>82</v>
       </c>
       <c r="AU8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AW8" t="s">
         <v>82</v>
@@ -2386,20 +2499,41 @@
       <c r="AZ8" t="s">
         <v>81</v>
       </c>
+      <c r="BB8" t="s">
+        <v>87</v>
+      </c>
       <c r="BG8" t="s">
         <v>80</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
       <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
         <v>85</v>
       </c>
       <c r="H9" t="s">
         <v>82</v>
       </c>
+      <c r="I9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" t="s">
+        <v>87</v>
+      </c>
       <c r="O9" t="s">
         <v>82</v>
       </c>
@@ -2409,8 +2543,14 @@
       <c r="Q9" t="s">
         <v>81</v>
       </c>
+      <c r="R9" t="s">
+        <v>85</v>
+      </c>
       <c r="V9" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="W9" t="s">
+        <v>87</v>
       </c>
       <c r="X9" s="6" t="s">
         <v>77</v>
@@ -2418,8 +2558,11 @@
       <c r="Y9" t="s">
         <v>81</v>
       </c>
+      <c r="AA9" t="s">
+        <v>85</v>
+      </c>
       <c r="AC9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AD9" s="6" t="s">
         <v>77</v>
@@ -2427,14 +2570,23 @@
       <c r="AE9" t="s">
         <v>81</v>
       </c>
+      <c r="AH9" t="s">
+        <v>87</v>
+      </c>
       <c r="AI9" s="6" t="s">
         <v>82</v>
       </c>
       <c r="AJ9" t="s">
         <v>81</v>
       </c>
+      <c r="AL9" t="s">
+        <v>87</v>
+      </c>
       <c r="AM9" t="s">
-        <v>81</v>
+        <v>85</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>85</v>
       </c>
       <c r="AP9" t="s">
         <v>84</v>
@@ -2446,37 +2598,61 @@
         <v>81</v>
       </c>
       <c r="AT9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AU9" t="s">
         <v>81</v>
       </c>
       <c r="AW9" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>87</v>
       </c>
       <c r="BG9" t="s">
         <v>82</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
       <c r="H10" t="s">
         <v>81</v>
       </c>
       <c r="O10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P10" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>87</v>
       </c>
       <c r="V10" t="s">
         <v>84</v>
       </c>
+      <c r="W10" t="s">
+        <v>85</v>
+      </c>
       <c r="X10" s="4" t="s">
         <v>77</v>
       </c>
+      <c r="Y10" t="s">
+        <v>87</v>
+      </c>
       <c r="AC10" t="s">
         <v>81</v>
       </c>
@@ -2486,80 +2662,188 @@
       <c r="AE10" t="s">
         <v>77</v>
       </c>
+      <c r="AH10" t="s">
+        <v>85</v>
+      </c>
       <c r="AI10" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>87</v>
       </c>
       <c r="AQ10" t="s">
         <v>84</v>
       </c>
+      <c r="AS10" t="s">
+        <v>85</v>
+      </c>
       <c r="AT10" t="s">
         <v>81</v>
       </c>
+      <c r="AU10" t="s">
+        <v>87</v>
+      </c>
       <c r="AW10" t="s">
         <v>81</v>
       </c>
+      <c r="AZ10" t="s">
+        <v>85</v>
+      </c>
       <c r="BG10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>85</v>
+      </c>
       <c r="O11" t="s">
         <v>81</v>
       </c>
+      <c r="P11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>85</v>
+      </c>
+      <c r="V11" t="s">
+        <v>87</v>
+      </c>
+      <c r="W11" t="s">
+        <v>82</v>
+      </c>
       <c r="X11" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="AC11" t="s">
+        <v>87</v>
+      </c>
       <c r="AD11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>85</v>
       </c>
-      <c r="AI11" s="4" t="s">
+      <c r="AQ11" t="s">
         <v>85</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>87</v>
       </c>
       <c r="BG11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="X12" s="6" t="s">
-        <v>82</v>
+      <c r="O12" t="s">
+        <v>87</v>
+      </c>
+      <c r="P12" t="s">
+        <v>85</v>
+      </c>
+      <c r="V12" t="s">
+        <v>85</v>
+      </c>
+      <c r="X12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>85</v>
       </c>
       <c r="AD12" s="6" t="s">
         <v>81</v>
       </c>
+      <c r="AE12" t="s">
+        <v>85</v>
+      </c>
       <c r="AI12" s="6" t="s">
         <v>81</v>
       </c>
+      <c r="AT12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="13" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>85</v>
+      </c>
       <c r="X13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD13" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI13" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD14" s="6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="X14" s="4" t="s">
-        <v>81</v>
+      <c r="AI14" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="X15" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="X15" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X16" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X17" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="24:24" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2582,7 +2866,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A3:L42"/>
+  <dimension ref="A3:N42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
@@ -2606,7 +2890,7 @@
     <col min="16" max="16" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -2638,13 +2922,19 @@
         <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2681,8 +2971,14 @@
       <c r="L4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2719,8 +3015,14 @@
       <c r="L5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2757,8 +3059,14 @@
       <c r="L6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2795,8 +3103,14 @@
       <c r="L7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -2822,13 +3136,19 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="L8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2859,8 +3179,14 @@
       <c r="L9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2891,8 +3217,14 @@
       <c r="L10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -2923,8 +3255,14 @@
       <c r="L11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>62</v>
       </c>
@@ -2952,8 +3290,14 @@
       <c r="L12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -2981,8 +3325,14 @@
       <c r="L13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -3008,10 +3358,16 @@
         <v>10</v>
       </c>
       <c r="L14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -3037,10 +3393,16 @@
         <v>24</v>
       </c>
       <c r="L15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="M15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -3068,8 +3430,14 @@
       <c r="L16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>25</v>
+      </c>
+      <c r="N16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -3092,13 +3460,19 @@
         <v>34</v>
       </c>
       <c r="K17" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="L17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -3126,8 +3500,14 @@
       <c r="L18" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -3155,8 +3535,14 @@
       <c r="L19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -3184,8 +3570,14 @@
       <c r="L20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -3213,8 +3605,14 @@
       <c r="L21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -3242,8 +3640,14 @@
       <c r="L22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>38</v>
+      </c>
+      <c r="N22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -3271,8 +3675,14 @@
       <c r="L23" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>50</v>
+      </c>
+      <c r="N23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -3289,7 +3699,7 @@
         <v>46</v>
       </c>
       <c r="J24" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="K24" t="s">
         <v>21</v>
@@ -3297,8 +3707,14 @@
       <c r="L24" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>7</v>
+      </c>
+      <c r="N24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -3315,7 +3731,7 @@
         <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="K25" t="s">
         <v>53</v>
@@ -3323,8 +3739,14 @@
       <c r="L25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -3347,10 +3769,16 @@
         <v>12</v>
       </c>
       <c r="L26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="M26" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -3375,8 +3803,14 @@
       <c r="L27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>62</v>
       </c>
@@ -3398,8 +3832,14 @@
       <c r="L28" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>38</v>
       </c>
@@ -3421,8 +3861,14 @@
       <c r="L29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>57</v>
+      </c>
+      <c r="N29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>20</v>
       </c>
@@ -3444,8 +3890,14 @@
       <c r="L30" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>31</v>
       </c>
@@ -3462,13 +3914,19 @@
         <v>27</v>
       </c>
       <c r="K31" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="L31" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>7</v>
       </c>
@@ -3487,8 +3945,14 @@
       <c r="L32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>18</v>
+      </c>
+      <c r="N32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>26</v>
       </c>
@@ -3507,8 +3971,14 @@
       <c r="L33" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>34</v>
+      </c>
+      <c r="N33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>50</v>
       </c>
@@ -3527,8 +3997,14 @@
       <c r="L34" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>44</v>
+      </c>
+      <c r="N34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>12</v>
       </c>
@@ -3547,42 +4023,72 @@
       <c r="L35" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="36" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>52</v>
+      </c>
+      <c r="N35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K36" t="s">
         <v>18</v>
       </c>
       <c r="L36" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>53</v>
+      </c>
+      <c r="N36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K37" t="s">
         <v>19</v>
       </c>
       <c r="L37" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>22</v>
+      </c>
+      <c r="N37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K38" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L38" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>15</v>
+      </c>
+      <c r="N38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K39" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="L39" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="M39" t="s">
+        <v>61</v>
+      </c>
+      <c r="N39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3590,10 +4096,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A3:L13"/>
+  <dimension ref="A3:N13"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3652,7 +4158,7 @@
     <col min="54" max="54" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -3684,247 +4190,307 @@
         <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="M4" t="s">
+        <v>100</v>
+      </c>
+      <c r="N4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="M5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="J6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="M6" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>121</v>
+        <v>128</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="J7" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="K7" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="L7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="M7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>130</v>
+        <v>139</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="J8" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="K8" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="L8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="M8" t="s">
+        <v>145</v>
+      </c>
+      <c r="N8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>138</v>
+        <v>149</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="J9" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="K9" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="L9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="M9" t="s">
+        <v>155</v>
+      </c>
+      <c r="N9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>145</v>
+        <v>158</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="J10" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="K10" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="L10" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="M10" t="s">
+        <v>164</v>
+      </c>
+      <c r="N10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="J11" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="K11" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="L11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="M11" t="s">
+        <v>172</v>
+      </c>
+      <c r="N11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K12" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="L12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>175</v>
+      </c>
+      <c r="M12" t="s">
+        <v>176</v>
+      </c>
+      <c r="N12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
